--- a/data/destinatarios.xlsx
+++ b/data/destinatarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hans Fendt\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A475D641-7E72-40B7-AFC4-AAE84F2163F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FDD072-7B16-4DF6-AC78-6286A8DD7F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{328542D1-658F-4E81-8054-24FE51435110}"/>
+    <workbookView xWindow="2580" yWindow="885" windowWidth="10650" windowHeight="6000" xr2:uid="{328542D1-658F-4E81-8054-24FE51435110}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>email destino</t>
   </si>
@@ -48,16 +48,13 @@
     <t>hans.fendt@gmail.com</t>
   </si>
   <si>
-    <t>Hans Fendt</t>
-  </si>
-  <si>
     <t>hefr2023@gmail.com</t>
   </si>
   <si>
-    <t>Eduardo Riera</t>
-  </si>
-  <si>
-    <t>En caso de algún comentario favor contactarme por Whatsapp 0414 2702375.</t>
+    <t>Hans 1</t>
+  </si>
+  <si>
+    <t>Hans 2</t>
   </si>
 </sst>
 </file>
@@ -423,17 +420,17 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="120.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="120.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,26 +441,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/destinatarios.xlsx
+++ b/data/destinatarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FDD072-7B16-4DF6-AC78-6286A8DD7F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFACEE8-2A2B-443A-98B0-CEBE75F48783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="885" windowWidth="10650" windowHeight="6000" xr2:uid="{328542D1-658F-4E81-8054-24FE51435110}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{328542D1-658F-4E81-8054-24FE51435110}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>email destino</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Hans 2</t>
+  </si>
+  <si>
+    <t>0414 270 2375</t>
+  </si>
+  <si>
+    <t>0412 270 2374</t>
   </si>
 </sst>
 </file>
@@ -420,13 +426,13 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="3" max="3" width="120.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -448,6 +454,9 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -455,6 +464,9 @@
       </c>
       <c r="B3" t="s">
         <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
